--- a/BalanceSheet/STZ_bal.xlsx
+++ b/BalanceSheet/STZ_bal.xlsx
@@ -504,19 +504,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>118500000.0</v>
+        <v>1291000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>2200000.0</v>
+        <v>1377000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>24400000.0</v>
+        <v>1328000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>48600000.0</v>
+        <v>1333000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>105000000.0</v>
+        <v>1374000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>1358800000.0</v>
@@ -2107,19 +2107,19 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>-242500000.0</v>
+        <v>460000000.0</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>30100000.0</v>
+        <v>732000000.0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>145100000.0</v>
+        <v>651000000.0</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>-28400000.0</v>
+        <v>506000000.0</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>-118800000.0</v>
+        <v>558000000.0</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>676500000.0</v>
@@ -2973,19 +2973,19 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>49400000.0</v>
+        <v>-1654000000.0</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>90900000.0</v>
+        <v>-2563000000.0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>97200000.0</v>
+        <v>-2575000000.0</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>98900000.0</v>
+        <v>-2600000000.0</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>39100000.0</v>
+        <v>-1996000000.0</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>1257500000.0</v>
